--- a/biology/Médecine/Soman/Soman.xlsx
+++ b/biology/Médecine/Soman/Soman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le soman est un agent neurotoxique organophosphoré qui se présente sous la forme d'un liquide incolore volatil avec une odeur de camphre. Il pénètre à travers la peau et les muqueuses. La dose mortelle lors de l'inhalation est d'environ la moitié de celle du sarin. Son nom auprès de l'IUPAC est le méthylfluorophosphonate de pinacolyle.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la Première Guerre mondiale, durant laquelle le gaz moutarde et le phosgène avaient notamment été utilisés, la Convention de Genève a, en 1925, interdit l'utilisation des armes chimiques. Néanmoins, les recherches en la matière ont continué.
 En 1936, un nouvel agent chimique a été découvert par Gerhard Schrader, ingénieur chimiste chez IG Farben : le tabun, surnommé German Agent par l'armée américaine, et commercialisé en tant qu'insecticide. Peu après a été découvert le sarin, également par Schrader, en 1938.
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes peuvent varier d’un individu à l’autre, mais les plus observés sont :
 vomissements ;
@@ -582,9 +598,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l’immédiat, il faut retirer ses vêtements et se laver les yeux et la peau avec de l’eau et du savon. La pyridostigmine (commercialisée en Belgique, en France et en Suisse sous le nom de Mestinon) est un antidote de « prémédication » (c'est-à-dire à prendre avant le contact avec le soman ou d'autres agents innervants) relativement efficace (selon le cas, on applique immédiatement après l'intoxication une ou plusieurs doses d'un antidote « direct », une association de l'atropine et l'asoxime, ou plus efficace, la méthoxime, combinée avec une dose d'un anticonvulsif comme le diazépam, voire une décontamination très rapide et intensive de toutes les surfaces du corps contaminées suivie d'une thérapie symptomatique intensive). Une qualité inhérente à la toxicité du soman, comparée aux autres agents neurotoxiques, est une détérioration rapide (blocage irréversible) des cholinestérases qui ont été empoisonnées, ce qui rend une intoxication au soman particulièrement difficile à traiter, même par des antidotes efficaces (il faut les appliquer immédiatement après l'intoxication, ou le pronostic médical se détériore très rapidement et la mortalité absolue de la population intoxiquée augmente fortement)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l’immédiat, il faut retirer ses vêtements et se laver les yeux et la peau avec de l’eau et du savon. La pyridostigmine (commercialisée en Belgique, en France et en Suisse sous le nom de Mestinon) est un antidote de « prémédication » (c'est-à-dire à prendre avant le contact avec le soman ou d'autres agents innervants) relativement efficace (selon le cas, on applique immédiatement après l'intoxication une ou plusieurs doses d'un antidote « direct », une association de l'atropine et l'asoxime, ou plus efficace, la méthoxime, combinée avec une dose d'un anticonvulsif comme le diazépam, voire une décontamination très rapide et intensive de toutes les surfaces du corps contaminées suivie d'une thérapie symptomatique intensive). Une qualité inhérente à la toxicité du soman, comparée aux autres agents neurotoxiques, est une détérioration rapide (blocage irréversible) des cholinestérases qui ont été empoisonnées, ce qui rend une intoxication au soman particulièrement difficile à traiter, même par des antidotes efficaces (il faut les appliquer immédiatement après l'intoxication, ou le pronostic médical se détériore très rapidement et la mortalité absolue de la population intoxiquée augmente fortement).
 </t>
         </is>
       </c>
@@ -613,10 +631,12 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le roman M. Suzuki suspect no 1, l'auteur (Jean-Pierre Conty) évoque le soman comme un agent chimique ayant servi à commettre un assassinat.
-Le mot méthyfluorophosphonate est utilisé par le groupe ACHAB, groupe français d'électro-rock de Tancrède Ramonet, dans les paroles de Encore un jour sans massacre[4].
+Le mot méthyfluorophosphonate est utilisé par le groupe ACHAB, groupe français d'électro-rock de Tancrède Ramonet, dans les paroles de Encore un jour sans massacre.
 </t>
         </is>
       </c>
